--- a/notebooks/CLDN16/input/CLDN16_HOMG3_individuals.xlsx
+++ b/notebooks/CLDN16/input/CLDN16_HOMG3_individuals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/CLDN16/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/CLDN16/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B58EE6-DE9E-9444-811E-A442A1B26B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AEE307-C947-3C4B-A1D1-5D03E6BD02CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5640" yWindow="4380" windowWidth="28540" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="290">
   <si>
     <t>PMID</t>
   </si>
@@ -900,6 +900,9 @@
   </si>
   <si>
     <t>II:11</t>
+  </si>
+  <si>
+    <t>11 month old boy</t>
   </si>
 </sst>
 </file>
@@ -1289,9 +1292,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ1" sqref="AJ1:AJ1048576"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2328,6 +2331,9 @@
       <c r="B11" t="s">
         <v>140</v>
       </c>
+      <c r="C11" t="s">
+        <v>289</v>
+      </c>
       <c r="E11" t="s">
         <v>42</v>
       </c>

--- a/notebooks/CLDN16/input/CLDN16_HOMG3_individuals.xlsx
+++ b/notebooks/CLDN16/input/CLDN16_HOMG3_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/CLDN16/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AEE307-C947-3C4B-A1D1-5D03E6BD02CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5550EFCC-7876-4B4D-9F6F-F79341D9D923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="4380" windowWidth="28540" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="5420" windowWidth="37680" windowHeight="14000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="312">
   <si>
     <t>PMID</t>
   </si>
@@ -903,13 +903,79 @@
   </si>
   <si>
     <t>11 month old boy</t>
+  </si>
+  <si>
+    <t>PMID:14628289</t>
+  </si>
+  <si>
+    <t>A novel claudin 16 mutation associated with childhood hypercalciuria abolishes binding to ZO-1 and results in lysosomal mistargeting</t>
+  </si>
+  <si>
+    <t>Family A individual 6</t>
+  </si>
+  <si>
+    <t>Family A individual 3</t>
+  </si>
+  <si>
+    <t>Family A individual 4</t>
+  </si>
+  <si>
+    <t>Family B individual 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_006580.4(CLDN16):c.698C&gt;G (p.Thr233Arg) </t>
+  </si>
+  <si>
+    <t>c.698C&gt;G</t>
+  </si>
+  <si>
+    <t>P5Y</t>
+  </si>
+  <si>
+    <t>Enuresis nocturna</t>
+  </si>
+  <si>
+    <t>HP:0010677</t>
+  </si>
+  <si>
+    <t>Increased circulating renin concentration</t>
+  </si>
+  <si>
+    <t>HP:0000848</t>
+  </si>
+  <si>
+    <t>Increased circulating aldosterone concentration</t>
+  </si>
+  <si>
+    <t>HP:0000859</t>
+  </si>
+  <si>
+    <t>Elevated urinary prostaglandin E2 level</t>
+  </si>
+  <si>
+    <t>HP:0034049</t>
+  </si>
+  <si>
+    <t>PMID:15856319</t>
+  </si>
+  <si>
+    <t>Hypomagnesemia with hypercalciuria and nephrocalcinosis: case report and a family study</t>
+  </si>
+  <si>
+    <t>NM_006580.4(CLDN16):c.453G&gt;T (p.Leu151Phe)</t>
+  </si>
+  <si>
+    <t>c.453G&gt;T</t>
+  </si>
+  <si>
+    <t>index case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,6 +1000,25 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B1B1B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -974,7 +1059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -986,6 +1071,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1290,19 +1381,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN48"/>
+  <dimension ref="A1:BR55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="5" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="11" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1501,8 +1595,20 @@
       <c r="BN1" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="BO1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>305</v>
+      </c>
     </row>
-    <row r="2" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -1701,8 +1807,20 @@
       <c r="BN2" s="1" t="s">
         <v>274</v>
       </c>
+      <c r="BO2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -1779,7 +1897,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -1853,7 +1971,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -1933,7 +2051,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -2022,7 +2140,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -2102,7 +2220,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -2176,7 +2294,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>105</v>
       </c>
@@ -2253,7 +2371,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -2324,7 +2442,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>139</v>
       </c>
@@ -2446,7 +2564,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -2562,7 +2680,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>172</v>
       </c>
@@ -2672,7 +2790,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>176</v>
       </c>
@@ -2755,7 +2873,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:66" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -2865,7 +2983,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:66" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>178</v>
       </c>
@@ -6146,6 +6264,405 @@
       <c r="BA48" t="s">
         <v>102</v>
       </c>
+    </row>
+    <row r="49" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>290</v>
+      </c>
+      <c r="B49" t="s">
+        <v>291</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I49" t="s">
+        <v>46</v>
+      </c>
+      <c r="J49" t="s">
+        <v>297</v>
+      </c>
+      <c r="K49" t="s">
+        <v>297</v>
+      </c>
+      <c r="L49" t="s">
+        <v>296</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S49" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T49" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="V49" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="W49" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF49" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB49" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO49" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP49" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="BQ49" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="BR49" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>290</v>
+      </c>
+      <c r="B50" t="s">
+        <v>291</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" t="s">
+        <v>43</v>
+      </c>
+      <c r="G50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" t="s">
+        <v>46</v>
+      </c>
+      <c r="J50" t="s">
+        <v>297</v>
+      </c>
+      <c r="K50" t="s">
+        <v>297</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R50" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S50" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T50" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="V50" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="W50" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF50" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB50" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO50" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP50" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="BQ50" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="BR50" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>290</v>
+      </c>
+      <c r="B51" t="s">
+        <v>291</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" t="s">
+        <v>45</v>
+      </c>
+      <c r="I51" t="s">
+        <v>46</v>
+      </c>
+      <c r="J51" t="s">
+        <v>297</v>
+      </c>
+      <c r="K51" t="s">
+        <v>297</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S51" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="V51" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="W51" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF51" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB51" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO51" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP51" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="BQ51" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="BR51" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>290</v>
+      </c>
+      <c r="B52" t="s">
+        <v>291</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" t="s">
+        <v>43</v>
+      </c>
+      <c r="G52" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" t="s">
+        <v>46</v>
+      </c>
+      <c r="J52" t="s">
+        <v>297</v>
+      </c>
+      <c r="K52" t="s">
+        <v>297</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R52" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="S52" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T52" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="V52" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="W52" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF52" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="BB52" t="s">
+        <v>50</v>
+      </c>
+      <c r="BO52" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP52" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="BQ52" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="BR52" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>307</v>
+      </c>
+      <c r="B53" t="s">
+        <v>308</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G53" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" t="s">
+        <v>45</v>
+      </c>
+      <c r="I53" t="s">
+        <v>46</v>
+      </c>
+      <c r="J53" t="s">
+        <v>310</v>
+      </c>
+      <c r="K53" t="s">
+        <v>310</v>
+      </c>
+      <c r="L53" t="s">
+        <v>309</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S53" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T53" s="6"/>
+      <c r="Y53" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX53" s="2"/>
+      <c r="AY53" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB53" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="C54" s="5"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="1"/>
+      <c r="S54" s="7"/>
+      <c r="BN54" s="7"/>
+    </row>
+    <row r="55" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="C55" s="5"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="AN55" s="7"/>
+      <c r="AO55" s="7"/>
+      <c r="AP55" s="7"/>
+      <c r="AQ55" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
